--- a/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011536</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>惠升惠益混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011537</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>惠升惠益混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -712,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>008300</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>人保量化锐进混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -750,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>008301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>人保量化锐进混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -844,36 +720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008300</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保量化锐进混合A</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -882,36 +758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008301</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保量化锐进混合C</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +812,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +852,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +890,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -988,14 +928,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603115-海星股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +485,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0.01</v>
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,27 +605,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008300</t>
+          <t>013166</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保量化锐进混合A</t>
+          <t>东兴宸祥量化混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -617,7 +634,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008301</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保量化锐进混合C</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>79.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -720,36 +813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>008300</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>人保量化锐进混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -758,36 +851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>008301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>人保量化锐进混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +889,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
